--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_37.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_9_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1780170.599264196</v>
+        <v>1779560.839207141</v>
       </c>
     </row>
     <row r="7">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>376.1180695402762</v>
       </c>
       <c r="C2" t="n">
         <v>33.76104808841092</v>
@@ -667,7 +667,7 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E2" t="n">
-        <v>424.2958575201043</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
         <v>23.58875529488432</v>
@@ -676,10 +676,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>140.9434582985778</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,7 +712,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>256.6300796561533</v>
@@ -724,7 +724,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>154.2630595823359</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>138.5031525665292</v>
@@ -873,19 +873,19 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>21.23934559254666</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="D5" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -913,10 +913,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,25 +946,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>142.9905458906761</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>414.9510387864824</v>
+        <v>235.1278037711597</v>
       </c>
       <c r="Y5" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="6">
@@ -1056,25 +1056,25 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>36.29350943250972</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,28 +1101,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>100.176219543324</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="8">
@@ -1138,13 +1138,13 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>106.6359644407749</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1186,22 +1186,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>215.9787279886748</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1338,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>101.8662825808772</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>152.355512532834</v>
       </c>
     </row>
     <row r="11">
@@ -1372,19 +1372,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884113</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.245077661748</v>
+        <v>397.2450776617479</v>
       </c>
       <c r="H11" t="n">
         <v>284.8176194334632</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>79.65301062268193</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T11" t="n">
-        <v>217.2590655368477</v>
+        <v>217.2590655368471</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6189776240557</v>
+        <v>256.6189776240564</v>
       </c>
       <c r="V11" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -1466,7 +1466,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H12" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,7 +1527,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
@@ -1536,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>44.89320313722327</v>
       </c>
       <c r="G13" t="n">
         <v>163.8731123569568</v>
@@ -1548,7 +1548,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I13" t="n">
-        <v>85.90132644576697</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S13" t="n">
         <v>156.56410959728</v>
@@ -1584,7 +1584,7 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U13" t="n">
-        <v>142.1631487883468</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1609,19 +1609,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>433.761048088411</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869773</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948844</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>397.245077661748</v>
+        <v>397.2450776617479</v>
       </c>
       <c r="H14" t="n">
         <v>284.8176194334632</v>
@@ -1657,25 +1657,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>79.65301062268193</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T14" t="n">
-        <v>217.2590655368477</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6189776240573</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655118</v>
+        <v>358.9907805655109</v>
       </c>
       <c r="W14" t="n">
-        <v>400.8069000430771</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864825</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
-        <v>404.2032624633432</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H15" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>168.0604237117701</v>
+        <v>38.01364335113211</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>146.094806988912</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I16" t="n">
-        <v>85.90132644576697</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>18.40466267690319</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S16" t="n">
         <v>156.56410959728</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.245077661748</v>
+        <v>397.2450776617479</v>
       </c>
       <c r="H17" t="n">
         <v>284.8176194334632</v>
@@ -1894,13 +1894,13 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>79.65301062268193</v>
+        <v>79.6530106226819</v>
       </c>
       <c r="T17" t="n">
         <v>217.2590655368471</v>
       </c>
       <c r="U17" t="n">
-        <v>256.6189776240555</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V17" t="n">
         <v>358.9907805655117</v>
@@ -1940,7 +1940,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H18" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2013,16 +2013,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>78.84379170509102</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>18.40466267690319</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S19" t="n">
         <v>156.56410959728</v>
@@ -2064,7 +2064,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W19" t="n">
-        <v>269.3061403695714</v>
+        <v>113.2320398340927</v>
       </c>
       <c r="X19" t="n">
         <v>242.9378371199217</v>
@@ -2083,7 +2083,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C20" t="n">
-        <v>433.7610480884114</v>
+        <v>433.7610480884104</v>
       </c>
       <c r="D20" t="n">
         <v>431.5506869772999</v>
@@ -2134,10 +2134,10 @@
         <v>79.6530106226819</v>
       </c>
       <c r="T20" t="n">
-        <v>217.2590655368471</v>
+        <v>217.2590655368476</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6189776240564</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
@@ -2177,7 +2177,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H21" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -2238,13 +2238,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.0737589556214</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C22" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2259,7 +2259,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>156.56410959728</v>
@@ -2295,13 +2295,13 @@
         <v>243.1546752508501</v>
       </c>
       <c r="U22" t="n">
-        <v>275.645275292109</v>
+        <v>243.4088654461481</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2326,7 +2326,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932883</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
@@ -2383,7 +2383,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864818</v>
       </c>
       <c r="Y23" t="n">
         <v>404.2032624633431</v>
@@ -2414,7 +2414,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H24" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
@@ -2475,16 +2475,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>52.5770951867578</v>
       </c>
       <c r="E25" t="n">
-        <v>91.26788607018493</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
         <v>174.9399834978613</v>
@@ -2496,7 +2496,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I25" t="n">
-        <v>85.90132644576697</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,13 +2523,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U25" t="n">
         <v>275.645275292109</v>
@@ -2651,7 +2651,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H27" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
@@ -2712,7 +2712,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2733,7 +2733,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I28" t="n">
-        <v>85.90132644576697</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>26.51732923664225</v>
+        <v>130.666834673857</v>
       </c>
       <c r="T28" t="n">
         <v>243.1546752508501</v>
       </c>
       <c r="U28" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2848,7 +2848,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U29" t="n">
-        <v>256.6189776240555</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V29" t="n">
         <v>358.9907805655117</v>
@@ -2888,7 +2888,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H30" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H31" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.1546752508501</v>
       </c>
       <c r="U31" t="n">
-        <v>223.8771638793005</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V31" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>124.3276997513193</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3085,7 +3085,7 @@
         <v>217.2590655368476</v>
       </c>
       <c r="U32" t="n">
-        <v>256.6189776240555</v>
+        <v>256.6189776240556</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -3125,7 +3125,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H33" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3198,16 +3198,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F34" t="n">
-        <v>174.9399834978613</v>
+        <v>11.34712793622727</v>
       </c>
       <c r="G34" t="n">
-        <v>0.4900090618015656</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H34" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>85.90132644576697</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T34" t="n">
         <v>243.1546752508501</v>
@@ -3362,7 +3362,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H36" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3438,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H37" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I37" t="n">
-        <v>85.90132644576697</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>156.56410959728</v>
@@ -3486,7 +3486,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
-        <v>113.2320398340927</v>
+        <v>53.66491659980615</v>
       </c>
       <c r="X37" t="n">
         <v>242.9378371199217</v>
@@ -3508,7 +3508,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773004</v>
       </c>
       <c r="E38" t="n">
         <v>429.4369973932878</v>
@@ -3562,7 +3562,7 @@
         <v>256.6189776240556</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655109</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
         <v>400.806900043077</v>
@@ -3599,7 +3599,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H39" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3666,7 +3666,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D40" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>168.0604237117701</v>
@@ -3675,13 +3675,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H40" t="n">
         <v>137.9496946538981</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3714,10 +3714,10 @@
         <v>156.56410959728</v>
       </c>
       <c r="T40" t="n">
-        <v>191.3865638380418</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U40" t="n">
-        <v>275.645275292109</v>
+        <v>138.3219379470695</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
@@ -3742,19 +3742,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.2450776617479</v>
+        <v>397.245077661748</v>
       </c>
       <c r="H41" t="n">
         <v>284.8176194334632</v>
@@ -3790,25 +3790,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>79.6530106226819</v>
+        <v>79.65301062268199</v>
       </c>
       <c r="T41" t="n">
-        <v>217.2590655368476</v>
+        <v>217.2590655368471</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240573</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864818</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="42">
@@ -3836,7 +3836,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H42" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>30.73708636673044</v>
       </c>
       <c r="F43" t="n">
         <v>174.9399834978613</v>
@@ -3915,10 +3915,10 @@
         <v>163.8731123569568</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I43" t="n">
-        <v>85.90132644576697</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T43" t="n">
-        <v>217.7212666095932</v>
+        <v>243.1546752508501</v>
       </c>
       <c r="U43" t="n">
         <v>275.645275292109</v>
@@ -3979,19 +3979,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.2450776617474</v>
+        <v>397.245077661748</v>
       </c>
       <c r="H44" t="n">
         <v>284.8176194334632</v>
@@ -4030,22 +4030,22 @@
         <v>79.6530106226819</v>
       </c>
       <c r="T44" t="n">
-        <v>217.2590655368476</v>
+        <v>217.2590655368487</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6189776240556</v>
+        <v>256.6189776240557</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4073,7 +4073,7 @@
         <v>84.45698745081532</v>
       </c>
       <c r="H45" t="n">
-        <v>40.60118359515529</v>
+        <v>40.6011835951553</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>137.9496946538981</v>
       </c>
       <c r="I46" t="n">
-        <v>85.90132644576697</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>156.56410959728</v>
       </c>
       <c r="T46" t="n">
-        <v>243.1546752508501</v>
+        <v>166.7575990143507</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4200,10 +4200,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>198.6358995195955</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,37 +4306,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1091.820030421016</v>
+        <v>550.1887779922017</v>
       </c>
       <c r="C2" t="n">
-        <v>1057.717961644843</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D2" t="n">
-        <v>629.1362873821113</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E2" t="n">
-        <v>200.5546131193796</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F2" t="n">
-        <v>176.7275875689914</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G2" t="n">
-        <v>176.7275875689914</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I2" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L2" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M2" t="n">
         <v>453.9965675465116</v>
@@ -4348,10 +4348,10 @@
         <v>874.0494664914149</v>
       </c>
       <c r="P2" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q2" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R2" t="n">
         <v>1697.183430080417</v>
@@ -4360,22 +4360,22 @@
         <v>1613.531556264254</v>
       </c>
       <c r="T2" t="n">
-        <v>1393.464329137293</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U2" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="V2" t="n">
-        <v>1134.24202645431</v>
+        <v>1354.309253581271</v>
       </c>
       <c r="W2" t="n">
-        <v>1133.426975905747</v>
+        <v>1353.494203032709</v>
       </c>
       <c r="X2" t="n">
-        <v>1118.324916525462</v>
+        <v>934.3517396120193</v>
       </c>
       <c r="Y2" t="n">
-        <v>1114.079196865519</v>
+        <v>930.1060199520767</v>
       </c>
     </row>
     <row r="3">
@@ -4406,28 +4406,28 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I3" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J3" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K3" t="n">
-        <v>453.9965675465116</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L3" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M3" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N3" t="n">
-        <v>1294.102365436318</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="P3" t="n">
-        <v>1580.010651986078</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q3" t="n">
         <v>1580.010651986078</v>
@@ -4464,19 +4464,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>770.4167823767687</v>
+        <v>764.7921222294549</v>
       </c>
       <c r="C4" t="n">
-        <v>597.8550708599936</v>
+        <v>764.7921222294549</v>
       </c>
       <c r="D4" t="n">
-        <v>597.8550708599936</v>
+        <v>608.9708499240651</v>
       </c>
       <c r="E4" t="n">
-        <v>428.0970671107308</v>
+        <v>439.2128461748023</v>
       </c>
       <c r="F4" t="n">
-        <v>428.0970671107308</v>
+        <v>262.5057921365585</v>
       </c>
       <c r="G4" t="n">
         <v>262.5057921365585</v>
@@ -4488,25 +4488,25 @@
         <v>33.94366860160834</v>
       </c>
       <c r="J4" t="n">
-        <v>33.94366860160834</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K4" t="n">
-        <v>308.7021231727439</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L4" t="n">
-        <v>308.7021231727439</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M4" t="n">
-        <v>728.7550221176472</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N4" t="n">
-        <v>1148.807921062551</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O4" t="n">
-        <v>1568.477170288332</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P4" t="n">
-        <v>1568.477170288332</v>
+        <v>1528.990655216085</v>
       </c>
       <c r="Q4" t="n">
         <v>1697.183430080417</v>
@@ -4521,19 +4521,19 @@
         <v>1270.644793662241</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.644793662241</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V4" t="n">
-        <v>983.6892855326716</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="W4" t="n">
-        <v>962.2354010957558</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="X4" t="n">
-        <v>962.2354010957558</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="Y4" t="n">
-        <v>962.2354010957558</v>
+        <v>764.7921222294549</v>
       </c>
     </row>
     <row r="5">
@@ -4543,37 +4543,37 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>443.0234284442651</v>
+        <v>944.6683834787607</v>
       </c>
       <c r="C5" t="n">
-        <v>408.9213596680925</v>
+        <v>516.086709216029</v>
       </c>
       <c r="D5" t="n">
-        <v>377.0519788829411</v>
+        <v>87.50503495329731</v>
       </c>
       <c r="E5" t="n">
-        <v>347.3176380816403</v>
+        <v>57.77069415199655</v>
       </c>
       <c r="F5" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G5" t="n">
-        <v>323.4906125312521</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H5" t="n">
-        <v>34.36045797446834</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I5" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="K5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="L5" t="n">
-        <v>33.94366860160834</v>
+        <v>453.9965675465116</v>
       </c>
       <c r="M5" t="n">
         <v>453.9965675465116</v>
@@ -4585,34 +4585,34 @@
         <v>874.0494664914149</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>1528.02936532736</v>
       </c>
       <c r="R5" t="n">
         <v>1697.183430080417</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="T5" t="n">
-        <v>1552.748535241351</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="U5" t="n">
-        <v>1293.526232558367</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="V5" t="n">
-        <v>1293.526232558367</v>
+        <v>1613.531556264254</v>
       </c>
       <c r="W5" t="n">
-        <v>1292.711182009805</v>
+        <v>1208.676101675288</v>
       </c>
       <c r="X5" t="n">
-        <v>873.5687185891154</v>
+        <v>971.173269583207</v>
       </c>
       <c r="Y5" t="n">
-        <v>465.2825948887688</v>
+        <v>966.9275499232645</v>
       </c>
     </row>
     <row r="6">
@@ -4643,31 +4643,31 @@
         <v>33.94366860160834</v>
       </c>
       <c r="I6" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J6" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K6" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L6" t="n">
-        <v>437.0247332457074</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="M6" t="n">
-        <v>437.0247332457074</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="N6" t="n">
-        <v>857.0776321906106</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="O6" t="n">
-        <v>857.0776321906106</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="P6" t="n">
-        <v>1277.130531135514</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="Q6" t="n">
-        <v>1697.183430080417</v>
+        <v>1580.010651986078</v>
       </c>
       <c r="R6" t="n">
         <v>1697.183430080417</v>
@@ -4701,43 +4701,43 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>800.3931741963595</v>
+        <v>372.3833729168607</v>
       </c>
       <c r="C7" t="n">
-        <v>763.7330636584709</v>
+        <v>199.8216614000857</v>
       </c>
       <c r="D7" t="n">
-        <v>597.8550708599936</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E7" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F7" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G7" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H7" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I7" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="J7" t="n">
-        <v>68.4625259617433</v>
+        <v>120.5233537662982</v>
       </c>
       <c r="K7" t="n">
-        <v>343.2209805328789</v>
+        <v>395.2818083374338</v>
       </c>
       <c r="L7" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M7" t="n">
-        <v>761.43086230084</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N7" t="n">
-        <v>1181.483761245743</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O7" t="n">
         <v>1181.483761245743</v>
@@ -4749,28 +4749,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R7" t="n">
-        <v>1675.765608785789</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="S7" t="n">
-        <v>1516.524240083786</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="T7" t="n">
-        <v>1270.644793662241</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U7" t="n">
-        <v>992.2117929153466</v>
+        <v>1595.995329531605</v>
       </c>
       <c r="V7" t="n">
-        <v>992.2117929153466</v>
+        <v>1309.039821402036</v>
       </c>
       <c r="W7" t="n">
-        <v>992.2117929153466</v>
+        <v>1037.013416988327</v>
       </c>
       <c r="X7" t="n">
-        <v>992.2117929153466</v>
+        <v>791.6216623217397</v>
       </c>
       <c r="Y7" t="n">
-        <v>992.2117929153466</v>
+        <v>564.2019916358479</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>153.4764845146214</v>
+        <v>1032.922181297967</v>
       </c>
       <c r="C8" t="n">
-        <v>119.3744157384487</v>
+        <v>998.8201125217938</v>
       </c>
       <c r="D8" t="n">
-        <v>87.50503495329731</v>
+        <v>570.2384382590621</v>
       </c>
       <c r="E8" t="n">
-        <v>57.77069415199655</v>
+        <v>141.6567639963305</v>
       </c>
       <c r="F8" t="n">
         <v>33.94366860160834</v>
@@ -4810,19 +4810,19 @@
         <v>453.9965675465116</v>
       </c>
       <c r="L8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="M8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="N8" t="n">
+        <v>453.9965675465116</v>
+      </c>
+      <c r="O8" t="n">
         <v>874.0494664914149</v>
       </c>
-      <c r="M8" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="N8" t="n">
-        <v>874.0494664914149</v>
-      </c>
-      <c r="O8" t="n">
-        <v>1294.102365436318</v>
-      </c>
       <c r="P8" t="n">
-        <v>1294.102365436318</v>
+        <v>1107.976466382457</v>
       </c>
       <c r="Q8" t="n">
         <v>1528.02936532736</v>
@@ -4834,22 +4834,22 @@
         <v>1697.183430080417</v>
       </c>
       <c r="T8" t="n">
-        <v>1477.116202953456</v>
+        <v>1697.183430080417</v>
       </c>
       <c r="U8" t="n">
-        <v>1217.893900270473</v>
+        <v>1437.961127397434</v>
       </c>
       <c r="V8" t="n">
-        <v>1217.893900270473</v>
+        <v>1075.344177331261</v>
       </c>
       <c r="W8" t="n">
-        <v>813.0384456815061</v>
+        <v>1074.529126782698</v>
       </c>
       <c r="X8" t="n">
-        <v>393.8959822608168</v>
+        <v>1059.427067402413</v>
       </c>
       <c r="Y8" t="n">
-        <v>175.7356509591251</v>
+        <v>1055.18134774247</v>
       </c>
     </row>
     <row r="9">
@@ -4862,7 +4862,7 @@
         <v>540.1154135929012</v>
       </c>
       <c r="C9" t="n">
-        <v>433.6589524295434</v>
+        <v>433.6589524295435</v>
       </c>
       <c r="D9" t="n">
         <v>338.5686635760967</v>
@@ -4871,31 +4871,31 @@
         <v>244.4482489030504</v>
       </c>
       <c r="F9" t="n">
-        <v>161.064410519212</v>
+        <v>161.0644105192121</v>
       </c>
       <c r="G9" t="n">
-        <v>75.67932078539587</v>
+        <v>75.67932078539593</v>
       </c>
       <c r="H9" t="n">
         <v>33.94366860160834</v>
       </c>
       <c r="I9" t="n">
-        <v>33.94366860160834</v>
+        <v>60.00734176206595</v>
       </c>
       <c r="J9" t="n">
-        <v>33.94366860160834</v>
+        <v>384.5656667282782</v>
       </c>
       <c r="K9" t="n">
-        <v>33.94366860160834</v>
+        <v>804.6185656731816</v>
       </c>
       <c r="L9" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="M9" t="n">
-        <v>453.9965675465116</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="N9" t="n">
-        <v>874.0494664914149</v>
+        <v>1159.957753041174</v>
       </c>
       <c r="O9" t="n">
         <v>1159.957753041174</v>
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>770.4167823767687</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="C10" t="n">
-        <v>597.8550708599936</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="D10" t="n">
-        <v>597.8550708599936</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="E10" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="F10" t="n">
-        <v>428.0970671107308</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="G10" t="n">
-        <v>262.5057921365585</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="H10" t="n">
-        <v>122.603617826933</v>
+        <v>33.94366860160834</v>
       </c>
       <c r="I10" t="n">
         <v>33.94366860160834</v>
@@ -4968,16 +4968,16 @@
         <v>395.2818083374338</v>
       </c>
       <c r="L10" t="n">
-        <v>688.8848573262783</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="M10" t="n">
-        <v>1108.937756271182</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="N10" t="n">
-        <v>1528.990655216085</v>
+        <v>813.4916901053949</v>
       </c>
       <c r="O10" t="n">
-        <v>1528.990655216085</v>
+        <v>1181.483761245743</v>
       </c>
       <c r="P10" t="n">
         <v>1528.990655216085</v>
@@ -4986,28 +4986,28 @@
         <v>1697.183430080417</v>
       </c>
       <c r="R10" t="n">
-        <v>1697.183430080417</v>
+        <v>1675.765608785789</v>
       </c>
       <c r="S10" t="n">
-        <v>1537.942061378414</v>
+        <v>1516.524240083786</v>
       </c>
       <c r="T10" t="n">
-        <v>1435.046826448235</v>
+        <v>1270.644793662241</v>
       </c>
       <c r="U10" t="n">
-        <v>1435.046826448235</v>
+        <v>992.2117929153466</v>
       </c>
       <c r="V10" t="n">
-        <v>1435.046826448235</v>
+        <v>705.2562847857771</v>
       </c>
       <c r="W10" t="n">
-        <v>1435.046826448235</v>
+        <v>433.2298803720686</v>
       </c>
       <c r="X10" t="n">
-        <v>1189.655071781648</v>
+        <v>187.8381257054811</v>
       </c>
       <c r="Y10" t="n">
-        <v>962.2354010957558</v>
+        <v>33.94366860160834</v>
       </c>
     </row>
     <row r="11">
@@ -5017,22 +5017,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C11" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D11" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E11" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F11" t="n">
-        <v>791.0944537814164</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G11" t="n">
-        <v>389.8367995776305</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H11" t="n">
         <v>102.1422344933241</v>
@@ -5041,52 +5041,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J11" t="n">
-        <v>553.945668773184</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K11" t="n">
-        <v>1405.772184659975</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L11" t="n">
-        <v>2502.512952049707</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M11" t="n">
-        <v>2893.031094854512</v>
+        <v>2608.624889715317</v>
       </c>
       <c r="N11" t="n">
-        <v>4043.276499651509</v>
+        <v>2633.139311075868</v>
       </c>
       <c r="O11" t="n">
-        <v>4066.42477259513</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P11" t="n">
-        <v>4914.491162831684</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q11" t="n">
-        <v>4929.327483119183</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R11" t="n">
-        <v>5107.111724666207</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S11" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T11" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U11" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V11" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W11" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X11" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y11" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="12">
@@ -5099,49 +5099,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C12" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D12" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E12" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F12" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G12" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H12" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I12" t="n">
-        <v>130.7368052137692</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J12" t="n">
-        <v>137.6817815627742</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K12" t="n">
-        <v>830.2853723931588</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L12" t="n">
-        <v>846.2461473877038</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M12" t="n">
-        <v>864.8716189852164</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N12" t="n">
-        <v>883.9900513940947</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O12" t="n">
-        <v>901.4796819592716</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P12" t="n">
-        <v>1735.239818880092</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q12" t="n">
-        <v>1744.623161884662</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R12" t="n">
         <v>1762.882278270333</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1008.929531691893</v>
+        <v>1047.327151238491</v>
       </c>
       <c r="C13" t="n">
-        <v>836.3678201751178</v>
+        <v>874.7654397217158</v>
       </c>
       <c r="D13" t="n">
-        <v>670.4898273766405</v>
+        <v>708.8874469232385</v>
       </c>
       <c r="E13" t="n">
-        <v>670.4898273766405</v>
+        <v>539.1294431739757</v>
       </c>
       <c r="F13" t="n">
-        <v>493.7827733383967</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="G13" t="n">
-        <v>328.2543770182384</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H13" t="n">
-        <v>188.91125110521</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I13" t="n">
         <v>102.1422344933241</v>
@@ -5223,28 +5223,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R13" t="n">
-        <v>2779.896976828331</v>
+        <v>2761.306408467823</v>
       </c>
       <c r="S13" t="n">
-        <v>2621.751411578553</v>
+        <v>2603.160843218045</v>
       </c>
       <c r="T13" t="n">
-        <v>2376.140628496887</v>
+        <v>2357.550060136378</v>
       </c>
       <c r="U13" t="n">
-        <v>2232.541488306637</v>
+        <v>2079.120489134248</v>
       </c>
       <c r="V13" t="n">
-        <v>1945.585980177068</v>
+        <v>1792.164981004679</v>
       </c>
       <c r="W13" t="n">
-        <v>1673.559575763359</v>
+        <v>1520.13857659097</v>
       </c>
       <c r="X13" t="n">
-        <v>1428.167821096772</v>
+        <v>1274.746821924383</v>
       </c>
       <c r="Y13" t="n">
-        <v>1200.74815041088</v>
+        <v>1047.327151238491</v>
       </c>
     </row>
     <row r="14">
@@ -5260,16 +5260,16 @@
         <v>2088.646413039469</v>
       </c>
       <c r="D14" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E14" t="n">
         <v>1218.961883372208</v>
       </c>
       <c r="F14" t="n">
-        <v>791.0944537814163</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G14" t="n">
-        <v>389.8367995776305</v>
+        <v>389.8367995776304</v>
       </c>
       <c r="H14" t="n">
         <v>102.1422344933241</v>
@@ -5278,40 +5278,40 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J14" t="n">
-        <v>553.945668773184</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K14" t="n">
-        <v>1405.772184659975</v>
+        <v>970.5174972070564</v>
       </c>
       <c r="L14" t="n">
-        <v>1427.452985796848</v>
+        <v>2067.258264596789</v>
       </c>
       <c r="M14" t="n">
-        <v>1451.577054504767</v>
+        <v>3248.430168515259</v>
       </c>
       <c r="N14" t="n">
-        <v>2516.598047122609</v>
+        <v>3496.777713692913</v>
       </c>
       <c r="O14" t="n">
-        <v>3519.925986636535</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P14" t="n">
-        <v>4367.992376873089</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q14" t="n">
-        <v>4929.327483119183</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R14" t="n">
-        <v>5107.111724666207</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S14" t="n">
-        <v>5026.65413817865</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T14" t="n">
-        <v>4807.200536626278</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U14" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V14" t="n">
         <v>4185.372498050956</v>
@@ -5336,46 +5336,46 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C15" t="n">
-        <v>501.0581612985754</v>
+        <v>501.0581612985753</v>
       </c>
       <c r="D15" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E15" t="n">
-        <v>311.8474577720824</v>
+        <v>311.8474577720823</v>
       </c>
       <c r="F15" t="n">
-        <v>228.463619388244</v>
+        <v>228.4636193882439</v>
       </c>
       <c r="G15" t="n">
-        <v>143.1535310540871</v>
+        <v>143.153531054087</v>
       </c>
       <c r="H15" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I15" t="n">
-        <v>130.7368052137692</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J15" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K15" t="n">
-        <v>474.1101772889938</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L15" t="n">
-        <v>1444.614001094642</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M15" t="n">
-        <v>1463.239472692155</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N15" t="n">
-        <v>1482.357905101033</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O15" t="n">
-        <v>1499.84753566621</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P15" t="n">
-        <v>1513.884506107832</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q15" t="n">
         <v>1641.145501977371</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.5085325195037</v>
+        <v>1047.327151238491</v>
       </c>
       <c r="C16" t="n">
-        <v>682.9468210027286</v>
+        <v>874.7654397217158</v>
       </c>
       <c r="D16" t="n">
-        <v>682.9468210027286</v>
+        <v>708.8874469232385</v>
       </c>
       <c r="E16" t="n">
-        <v>513.1888172534659</v>
+        <v>670.4898273766404</v>
       </c>
       <c r="F16" t="n">
-        <v>336.4817632152221</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="G16" t="n">
-        <v>188.91125110521</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H16" t="n">
-        <v>188.91125110521</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I16" t="n">
         <v>102.1422344933241</v>
@@ -5491,7 +5491,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C17" t="n">
         <v>2088.646413039469</v>
@@ -5500,10 +5500,10 @@
         <v>1652.736628213913</v>
       </c>
       <c r="E17" t="n">
-        <v>1218.961883372209</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F17" t="n">
-        <v>791.0944537814163</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G17" t="n">
         <v>389.8367995776304</v>
@@ -5518,31 +5518,31 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K17" t="n">
-        <v>571.4218927017965</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L17" t="n">
-        <v>593.1026938386696</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M17" t="n">
-        <v>1774.27459775714</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N17" t="n">
-        <v>2516.598047122608</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O17" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P17" t="n">
-        <v>4367.992376873088</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q17" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R17" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S17" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T17" t="n">
         <v>4807.200536626277</v>
@@ -5551,16 +5551,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V17" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W17" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X17" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y17" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="18">
@@ -5594,25 +5594,25 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J18" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K18" t="n">
-        <v>1154.843697359371</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L18" t="n">
-        <v>1170.804472353916</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M18" t="n">
-        <v>1189.429943951429</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N18" t="n">
-        <v>1208.548376360307</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O18" t="n">
-        <v>1226.038006925484</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P18" t="n">
-        <v>1240.074977367106</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q18" t="n">
         <v>1641.145501977371</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>855.5085325195037</v>
+        <v>1013.159139120997</v>
       </c>
       <c r="C19" t="n">
-        <v>682.9468210027286</v>
+        <v>840.5974276042222</v>
       </c>
       <c r="D19" t="n">
-        <v>517.0688282042513</v>
+        <v>674.7194348057449</v>
       </c>
       <c r="E19" t="n">
-        <v>347.3108244549886</v>
+        <v>504.9614310564821</v>
       </c>
       <c r="F19" t="n">
-        <v>347.3108244549886</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="G19" t="n">
-        <v>181.7824281348302</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H19" t="n">
-        <v>102.1422344933241</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I19" t="n">
         <v>102.1422344933241</v>
@@ -5712,13 +5712,13 @@
         <v>1792.164981004679</v>
       </c>
       <c r="W19" t="n">
-        <v>1520.13857659097</v>
+        <v>1677.789183192464</v>
       </c>
       <c r="X19" t="n">
-        <v>1274.746821924383</v>
+        <v>1432.397428525876</v>
       </c>
       <c r="Y19" t="n">
-        <v>1047.327151238491</v>
+        <v>1204.977757839984</v>
       </c>
     </row>
     <row r="20">
@@ -5728,7 +5728,7 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C20" t="n">
         <v>2088.646413039469</v>
@@ -5752,52 +5752,52 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J20" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K20" t="n">
-        <v>571.4218927017965</v>
+        <v>136.1672052488785</v>
       </c>
       <c r="L20" t="n">
-        <v>1668.162660091529</v>
+        <v>1232.907972638611</v>
       </c>
       <c r="M20" t="n">
-        <v>1692.286728799448</v>
+        <v>2414.079876557081</v>
       </c>
       <c r="N20" t="n">
-        <v>2516.598047122608</v>
+        <v>3564.325281354079</v>
       </c>
       <c r="O20" t="n">
-        <v>3519.925986636534</v>
+        <v>4567.653220868006</v>
       </c>
       <c r="P20" t="n">
-        <v>4367.992376873088</v>
+        <v>4587.409736271163</v>
       </c>
       <c r="Q20" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R20" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S20" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T20" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U20" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V20" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W20" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X20" t="n">
-        <v>3361.3745800413</v>
+        <v>3361.374580041299</v>
       </c>
       <c r="Y20" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="21">
@@ -5828,31 +5828,31 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I21" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533115</v>
       </c>
       <c r="J21" t="n">
-        <v>137.6817815627741</v>
+        <v>291.3714811881254</v>
       </c>
       <c r="K21" t="n">
-        <v>149.5518523227814</v>
+        <v>303.2415519481327</v>
       </c>
       <c r="L21" t="n">
-        <v>165.5126273173264</v>
+        <v>319.2023269426776</v>
       </c>
       <c r="M21" t="n">
-        <v>184.138098914839</v>
+        <v>337.8277985401901</v>
       </c>
       <c r="N21" t="n">
-        <v>203.2565313237173</v>
+        <v>356.9462309490684</v>
       </c>
       <c r="O21" t="n">
-        <v>1234.547771707196</v>
+        <v>374.4358615142452</v>
       </c>
       <c r="P21" t="n">
-        <v>1631.762158972801</v>
+        <v>1208.195998435065</v>
       </c>
       <c r="Q21" t="n">
-        <v>1641.145501977371</v>
+        <v>1758.318280071711</v>
       </c>
       <c r="R21" t="n">
         <v>1762.882278270333</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>926.0405260307924</v>
+        <v>1178.687535441155</v>
       </c>
       <c r="C22" t="n">
-        <v>753.4788145140174</v>
+        <v>1006.12582392438</v>
       </c>
       <c r="D22" t="n">
-        <v>753.4788145140174</v>
+        <v>840.2478311259031</v>
       </c>
       <c r="E22" t="n">
-        <v>583.7208107647547</v>
+        <v>670.4898273766404</v>
       </c>
       <c r="F22" t="n">
-        <v>407.0137567265109</v>
+        <v>493.7827733383966</v>
       </c>
       <c r="G22" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182383</v>
       </c>
       <c r="H22" t="n">
-        <v>102.1422344933241</v>
+        <v>188.9112511052099</v>
       </c>
       <c r="I22" t="n">
         <v>102.1422344933241</v>
@@ -5934,28 +5934,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R22" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S22" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T22" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U22" t="n">
-        <v>2079.120489134248</v>
+        <v>2130.273087642192</v>
       </c>
       <c r="V22" t="n">
-        <v>1792.164981004679</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="W22" t="n">
-        <v>1520.13857659097</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X22" t="n">
-        <v>1274.746821924383</v>
+        <v>1597.925824846034</v>
       </c>
       <c r="Y22" t="n">
-        <v>1047.327151238491</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="23">
@@ -5965,13 +5965,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2526.788885856046</v>
+        <v>2526.788885856045</v>
       </c>
       <c r="C23" t="n">
         <v>2088.646413039469</v>
       </c>
       <c r="D23" t="n">
-        <v>1652.736628213914</v>
+        <v>1652.736628213913</v>
       </c>
       <c r="E23" t="n">
         <v>1218.961883372208</v>
@@ -5992,7 +5992,7 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K23" t="n">
-        <v>1405.772184659975</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L23" t="n">
         <v>1427.452985796848</v>
@@ -6001,31 +6001,31 @@
         <v>1451.577054504767</v>
       </c>
       <c r="N23" t="n">
-        <v>2516.598047122608</v>
+        <v>2516.598047122607</v>
       </c>
       <c r="O23" t="n">
-        <v>3519.925986636534</v>
+        <v>3519.925986636533</v>
       </c>
       <c r="P23" t="n">
-        <v>4367.992376873088</v>
+        <v>4367.992376873087</v>
       </c>
       <c r="Q23" t="n">
-        <v>4929.327483119182</v>
+        <v>4929.327483119181</v>
       </c>
       <c r="R23" t="n">
-        <v>5107.111724666206</v>
+        <v>5107.111724666205</v>
       </c>
       <c r="S23" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178647</v>
       </c>
       <c r="T23" t="n">
-        <v>4807.200536626277</v>
+        <v>4807.200536626276</v>
       </c>
       <c r="U23" t="n">
-        <v>4547.98944811713</v>
+        <v>4547.989448117129</v>
       </c>
       <c r="V23" t="n">
-        <v>4185.372498050956</v>
+        <v>4185.372498050955</v>
       </c>
       <c r="W23" t="n">
         <v>3780.517043461989</v>
@@ -6034,7 +6034,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y23" t="n">
-        <v>2953.088456340954</v>
+        <v>2953.088456340953</v>
       </c>
     </row>
     <row r="24">
@@ -6065,25 +6065,25 @@
         <v>102.1422344933241</v>
       </c>
       <c r="I24" t="n">
-        <v>130.7368052137691</v>
+        <v>104.6731320533115</v>
       </c>
       <c r="J24" t="n">
-        <v>313.1883495026061</v>
+        <v>111.6181084023165</v>
       </c>
       <c r="K24" t="n">
-        <v>1005.791940332991</v>
+        <v>123.4881791623238</v>
       </c>
       <c r="L24" t="n">
-        <v>1021.752715327536</v>
+        <v>139.4489541568687</v>
       </c>
       <c r="M24" t="n">
-        <v>1040.378186925048</v>
+        <v>158.0744257543813</v>
       </c>
       <c r="N24" t="n">
-        <v>1059.496619333927</v>
+        <v>177.1928581632596</v>
       </c>
       <c r="O24" t="n">
-        <v>1076.986249899104</v>
+        <v>257.2630834199053</v>
       </c>
       <c r="P24" t="n">
         <v>1091.023220340725</v>
@@ -6123,13 +6123,13 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1101.11931560117</v>
+        <v>1065.917719598999</v>
       </c>
       <c r="C25" t="n">
-        <v>928.5576040843954</v>
+        <v>893.3560080822241</v>
       </c>
       <c r="D25" t="n">
-        <v>762.6796112859181</v>
+        <v>840.2478311259031</v>
       </c>
       <c r="E25" t="n">
         <v>670.4898273766404</v>
@@ -6171,28 +6171,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R25" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S25" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T25" t="n">
-        <v>2603.160843218045</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U25" t="n">
-        <v>2324.731272215915</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V25" t="n">
-        <v>2037.775764086345</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W25" t="n">
-        <v>1765.749359672637</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X25" t="n">
-        <v>1520.357605006049</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y25" t="n">
-        <v>1292.937934320158</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="26">
@@ -6229,16 +6229,16 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K26" t="n">
-        <v>1405.772184659975</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L26" t="n">
-        <v>2467.959557054136</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M26" t="n">
-        <v>2492.083625762056</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N26" t="n">
-        <v>2516.598047122607</v>
+        <v>2601.822459301764</v>
       </c>
       <c r="O26" t="n">
         <v>3519.925986636533</v>
@@ -6305,28 +6305,28 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J27" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K27" t="n">
-        <v>1122.96471842733</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L27" t="n">
-        <v>1138.925493421875</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M27" t="n">
-        <v>1157.550965019388</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N27" t="n">
-        <v>1176.669397428266</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O27" t="n">
-        <v>1194.159027993443</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P27" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q27" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R27" t="n">
         <v>1762.882278270333</v>
@@ -6408,28 +6408,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R28" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S28" t="n">
-        <v>2734.52122742071</v>
+        <v>2647.910275137567</v>
       </c>
       <c r="T28" t="n">
-        <v>2488.910444339043</v>
+        <v>2402.2994920559</v>
       </c>
       <c r="U28" t="n">
-        <v>2210.480873336913</v>
+        <v>2402.2994920559</v>
       </c>
       <c r="V28" t="n">
-        <v>1923.525365207343</v>
+        <v>2115.343983926331</v>
       </c>
       <c r="W28" t="n">
-        <v>1651.498960793635</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X28" t="n">
-        <v>1406.107206127047</v>
+        <v>1597.925824846034</v>
       </c>
       <c r="Y28" t="n">
-        <v>1178.687535441155</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="29">
@@ -6454,7 +6454,7 @@
         <v>791.0944537814166</v>
       </c>
       <c r="G29" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H29" t="n">
         <v>102.1422344933241</v>
@@ -6463,28 +6463,28 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J29" t="n">
-        <v>553.9456687731839</v>
+        <v>118.690981320266</v>
       </c>
       <c r="K29" t="n">
-        <v>1405.772184659975</v>
+        <v>237.7737023407702</v>
       </c>
       <c r="L29" t="n">
-        <v>1427.452985796848</v>
+        <v>1334.514469730503</v>
       </c>
       <c r="M29" t="n">
-        <v>1451.577054504767</v>
+        <v>2515.686373648973</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.598047122608</v>
+        <v>3665.93177844597</v>
       </c>
       <c r="O29" t="n">
-        <v>3519.925986636534</v>
+        <v>3689.080051389591</v>
       </c>
       <c r="P29" t="n">
-        <v>4367.992376873088</v>
+        <v>4537.146441626144</v>
       </c>
       <c r="Q29" t="n">
-        <v>4929.327483119182</v>
+        <v>5098.481547872238</v>
       </c>
       <c r="R29" t="n">
         <v>5107.111724666206</v>
@@ -6521,19 +6521,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C30" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D30" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E30" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F30" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G30" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H30" t="n">
         <v>102.1422344933241</v>
@@ -6542,22 +6542,22 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J30" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K30" t="n">
-        <v>1005.791940332991</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L30" t="n">
-        <v>1021.752715327536</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M30" t="n">
-        <v>1040.378186925048</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N30" t="n">
-        <v>1059.496619333927</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O30" t="n">
-        <v>1076.986249899104</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P30" t="n">
         <v>1091.023220340725</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>926.3901225091115</v>
+        <v>1178.687535441156</v>
       </c>
       <c r="C31" t="n">
-        <v>753.8284109923364</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D31" t="n">
-        <v>587.9504181938592</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E31" t="n">
-        <v>418.1924144445964</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F31" t="n">
-        <v>241.4853604063525</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G31" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H31" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I31" t="n">
         <v>102.1422344933241</v>
@@ -6648,25 +6648,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="S31" t="n">
-        <v>2621.751411578553</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="T31" t="n">
-        <v>2376.140628496887</v>
+        <v>2534.286193746665</v>
       </c>
       <c r="U31" t="n">
-        <v>2150.002079123856</v>
+        <v>2255.856622744534</v>
       </c>
       <c r="V31" t="n">
-        <v>1863.046570994286</v>
+        <v>1968.901114614965</v>
       </c>
       <c r="W31" t="n">
-        <v>1591.020166580578</v>
+        <v>1843.317579512622</v>
       </c>
       <c r="X31" t="n">
-        <v>1345.62841191399</v>
+        <v>1597.925824846035</v>
       </c>
       <c r="Y31" t="n">
-        <v>1118.208741228099</v>
+        <v>1370.506154160143</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2526.788885856047</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C32" t="n">
-        <v>2088.64641303947</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D32" t="n">
-        <v>1652.736628213915</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E32" t="n">
-        <v>1218.96188337221</v>
+        <v>1218.961883372208</v>
       </c>
       <c r="F32" t="n">
-        <v>791.0944537814175</v>
+        <v>791.0944537814162</v>
       </c>
       <c r="G32" t="n">
         <v>389.8367995776304</v>
@@ -6700,19 +6700,19 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J32" t="n">
-        <v>118.6909813202661</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K32" t="n">
-        <v>970.5174972070566</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L32" t="n">
-        <v>2067.258264596789</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M32" t="n">
-        <v>3248.430168515259</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N32" t="n">
-        <v>3272.94458987581</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O32" t="n">
         <v>3519.925986636534</v>
@@ -6727,7 +6727,7 @@
         <v>5107.111724666206</v>
       </c>
       <c r="S32" t="n">
-        <v>5026.654138178649</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T32" t="n">
         <v>4807.200536626277</v>
@@ -6736,16 +6736,16 @@
         <v>4547.98944811713</v>
       </c>
       <c r="V32" t="n">
-        <v>4185.372498050957</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W32" t="n">
-        <v>3780.51704346199</v>
+        <v>3780.517043461989</v>
       </c>
       <c r="X32" t="n">
-        <v>3361.374580041301</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y32" t="n">
-        <v>2953.088456340955</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="33">
@@ -6758,19 +6758,19 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C33" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D33" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E33" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F33" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G33" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H33" t="n">
         <v>102.1422344933241</v>
@@ -6779,7 +6779,7 @@
         <v>130.7368052137691</v>
       </c>
       <c r="J33" t="n">
-        <v>462.2401065289865</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K33" t="n">
         <v>1005.791940332991</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1013.654097769282</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C34" t="n">
-        <v>841.0923862525066</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D34" t="n">
-        <v>675.2143934540293</v>
+        <v>535.6593965647596</v>
       </c>
       <c r="E34" t="n">
-        <v>505.4563897047665</v>
+        <v>365.9013928154969</v>
       </c>
       <c r="F34" t="n">
-        <v>328.7493356665227</v>
+        <v>354.4396474253683</v>
       </c>
       <c r="G34" t="n">
-        <v>328.2543770182383</v>
+        <v>188.91125110521</v>
       </c>
       <c r="H34" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I34" t="n">
         <v>102.1422344933241</v>
@@ -6882,28 +6882,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R34" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S34" t="n">
-        <v>2761.306408467823</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T34" t="n">
-        <v>2515.695625386156</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U34" t="n">
-        <v>2237.266054384026</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V34" t="n">
-        <v>1950.310546254457</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W34" t="n">
-        <v>1678.284141840748</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X34" t="n">
-        <v>1432.892387174161</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y34" t="n">
-        <v>1205.472716488269</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="35">
@@ -6913,22 +6913,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C35" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D35" t="n">
-        <v>1652.736628213913</v>
+        <v>1652.736628213914</v>
       </c>
       <c r="E35" t="n">
-        <v>1218.961883372208</v>
+        <v>1218.961883372209</v>
       </c>
       <c r="F35" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814166</v>
       </c>
       <c r="G35" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776307</v>
       </c>
       <c r="H35" t="n">
         <v>102.1422344933241</v>
@@ -6940,49 +6940,49 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K35" t="n">
-        <v>1405.772184659975</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L35" t="n">
-        <v>1427.452985796848</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M35" t="n">
-        <v>1451.577054504767</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N35" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O35" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P35" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q35" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R35" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S35" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T35" t="n">
         <v>4807.200536626277</v>
       </c>
       <c r="U35" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V35" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W35" t="n">
         <v>3780.517043461989</v>
       </c>
       <c r="X35" t="n">
-        <v>3361.374580041299</v>
+        <v>3361.3745800413</v>
       </c>
       <c r="Y35" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="36">
@@ -6995,49 +6995,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C36" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D36" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E36" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F36" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G36" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H36" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I36" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J36" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K36" t="n">
-        <v>804.2216992327012</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L36" t="n">
-        <v>820.1824742272462</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M36" t="n">
-        <v>838.8079458247588</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N36" t="n">
-        <v>857.9263782336371</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O36" t="n">
-        <v>875.416008798814</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P36" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q36" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R36" t="n">
         <v>1762.882278270333</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1013.159139120997</v>
+        <v>1091.91851882927</v>
       </c>
       <c r="C37" t="n">
-        <v>840.5974276042222</v>
+        <v>919.3568073124947</v>
       </c>
       <c r="D37" t="n">
-        <v>674.7194348057449</v>
+        <v>753.4788145140174</v>
       </c>
       <c r="E37" t="n">
-        <v>504.9614310564821</v>
+        <v>583.7208107647547</v>
       </c>
       <c r="F37" t="n">
-        <v>328.2543770182383</v>
+        <v>407.0137567265109</v>
       </c>
       <c r="G37" t="n">
-        <v>328.2543770182383</v>
+        <v>241.4853604063525</v>
       </c>
       <c r="H37" t="n">
-        <v>188.9112511052099</v>
+        <v>102.1422344933241</v>
       </c>
       <c r="I37" t="n">
         <v>102.1422344933241</v>
@@ -7119,28 +7119,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R37" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S37" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T37" t="n">
-        <v>2357.550060136378</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U37" t="n">
-        <v>2079.120489134248</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V37" t="n">
-        <v>1792.164981004679</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W37" t="n">
-        <v>1677.789183192464</v>
+        <v>1756.548562900736</v>
       </c>
       <c r="X37" t="n">
-        <v>1432.397428525876</v>
+        <v>1511.156808234149</v>
       </c>
       <c r="Y37" t="n">
-        <v>1204.977757839984</v>
+        <v>1283.737137548257</v>
       </c>
     </row>
     <row r="38">
@@ -7150,7 +7150,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2526.788885856045</v>
+        <v>2526.788885856046</v>
       </c>
       <c r="C38" t="n">
         <v>2088.646413039469</v>
@@ -7174,40 +7174,40 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J38" t="n">
-        <v>118.6909813202661</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K38" t="n">
-        <v>970.5174972070565</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L38" t="n">
-        <v>2067.258264596789</v>
+        <v>2467.959557054138</v>
       </c>
       <c r="M38" t="n">
-        <v>2091.382333304708</v>
+        <v>2492.083625762057</v>
       </c>
       <c r="N38" t="n">
-        <v>2516.598047122607</v>
+        <v>2516.598047122608</v>
       </c>
       <c r="O38" t="n">
-        <v>3519.925986636533</v>
+        <v>3519.925986636534</v>
       </c>
       <c r="P38" t="n">
-        <v>4367.992376873087</v>
+        <v>4367.992376873088</v>
       </c>
       <c r="Q38" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119182</v>
       </c>
       <c r="R38" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666206</v>
       </c>
       <c r="S38" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178648</v>
       </c>
       <c r="T38" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626277</v>
       </c>
       <c r="U38" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V38" t="n">
         <v>4185.372498050956</v>
@@ -7219,7 +7219,7 @@
         <v>3361.3745800413</v>
       </c>
       <c r="Y38" t="n">
-        <v>2953.088456340953</v>
+        <v>2953.088456340954</v>
       </c>
     </row>
     <row r="39">
@@ -7232,49 +7232,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C39" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D39" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E39" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F39" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G39" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H39" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I39" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137691</v>
       </c>
       <c r="J39" t="n">
-        <v>436.1764333685289</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K39" t="n">
-        <v>448.0465041285362</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L39" t="n">
-        <v>464.0072791230812</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M39" t="n">
-        <v>482.6327507205938</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N39" t="n">
-        <v>1717.408336060342</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O39" t="n">
-        <v>1734.897966625519</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P39" t="n">
-        <v>1748.934937067141</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q39" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R39" t="n">
         <v>1762.882278270333</v>
@@ -7308,25 +7308,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.3901225091114</v>
+        <v>1012.809542642678</v>
       </c>
       <c r="C40" t="n">
-        <v>753.8284109923363</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="D40" t="n">
-        <v>587.950418193859</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E40" t="n">
-        <v>418.1924144445963</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F40" t="n">
-        <v>241.4853604063525</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G40" t="n">
-        <v>241.4853604063525</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H40" t="n">
-        <v>102.1422344933241</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I40" t="n">
         <v>102.1422344933241</v>
@@ -7362,22 +7362,22 @@
         <v>2621.751411578553</v>
       </c>
       <c r="T40" t="n">
-        <v>2428.431650125986</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U40" t="n">
-        <v>2150.002079123856</v>
+        <v>2236.421499257423</v>
       </c>
       <c r="V40" t="n">
-        <v>1863.046570994286</v>
+        <v>1949.465991127853</v>
       </c>
       <c r="W40" t="n">
-        <v>1591.020166580578</v>
+        <v>1677.439586714145</v>
       </c>
       <c r="X40" t="n">
-        <v>1345.62841191399</v>
+        <v>1432.047832047557</v>
       </c>
       <c r="Y40" t="n">
-        <v>1118.208741228098</v>
+        <v>1204.628161361665</v>
       </c>
     </row>
     <row r="41">
@@ -7399,10 +7399,10 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F41" t="n">
-        <v>791.0944537814162</v>
+        <v>791.0944537814163</v>
       </c>
       <c r="G41" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776305</v>
       </c>
       <c r="H41" t="n">
         <v>102.1422344933241</v>
@@ -7411,43 +7411,43 @@
         <v>107.0303764979941</v>
       </c>
       <c r="J41" t="n">
-        <v>118.6909813202661</v>
+        <v>553.9456687731839</v>
       </c>
       <c r="K41" t="n">
-        <v>136.1672052488786</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L41" t="n">
-        <v>1232.907972638611</v>
+        <v>1427.452985796848</v>
       </c>
       <c r="M41" t="n">
-        <v>2414.079876557081</v>
+        <v>1451.577054504767</v>
       </c>
       <c r="N41" t="n">
-        <v>3564.325281354079</v>
+        <v>2516.598047122609</v>
       </c>
       <c r="O41" t="n">
-        <v>4567.653220868006</v>
+        <v>3519.925986636535</v>
       </c>
       <c r="P41" t="n">
-        <v>4914.491162831682</v>
+        <v>4367.992376873089</v>
       </c>
       <c r="Q41" t="n">
-        <v>4929.327483119181</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R41" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S41" t="n">
-        <v>5026.654138178647</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T41" t="n">
-        <v>4807.200536626276</v>
+        <v>4807.200536626278</v>
       </c>
       <c r="U41" t="n">
-        <v>4547.989448117129</v>
+        <v>4547.98944811713</v>
       </c>
       <c r="V41" t="n">
-        <v>4185.372498050955</v>
+        <v>4185.372498050956</v>
       </c>
       <c r="W41" t="n">
         <v>3780.517043461989</v>
@@ -7469,49 +7469,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C42" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D42" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E42" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F42" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G42" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H42" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I42" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137692</v>
       </c>
       <c r="J42" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K42" t="n">
-        <v>123.4881791623238</v>
+        <v>1005.791940332991</v>
       </c>
       <c r="L42" t="n">
-        <v>1093.992002967972</v>
+        <v>1021.752715327536</v>
       </c>
       <c r="M42" t="n">
-        <v>1112.617474565485</v>
+        <v>1040.378186925048</v>
       </c>
       <c r="N42" t="n">
-        <v>1131.735906974363</v>
+        <v>1059.496619333927</v>
       </c>
       <c r="O42" t="n">
-        <v>1149.22553753954</v>
+        <v>1076.986249899104</v>
       </c>
       <c r="P42" t="n">
-        <v>1208.195998435065</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q42" t="n">
-        <v>1758.318280071711</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R42" t="n">
         <v>1762.882278270333</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1039.344409528127</v>
+        <v>874.099100880012</v>
       </c>
       <c r="C43" t="n">
-        <v>866.7826980113522</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="D43" t="n">
-        <v>700.9047052128749</v>
+        <v>701.5373893632369</v>
       </c>
       <c r="E43" t="n">
-        <v>531.1467014636121</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F43" t="n">
-        <v>354.4396474253683</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G43" t="n">
-        <v>188.9112511052099</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H43" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I43" t="n">
         <v>102.1422344933241</v>
@@ -7593,28 +7593,28 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R43" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S43" t="n">
-        <v>2761.306408467823</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T43" t="n">
-        <v>2541.385937145002</v>
+        <v>2376.140628496887</v>
       </c>
       <c r="U43" t="n">
-        <v>2262.956366142872</v>
+        <v>2097.711057494756</v>
       </c>
       <c r="V43" t="n">
-        <v>1976.000858013302</v>
+        <v>1810.755549365187</v>
       </c>
       <c r="W43" t="n">
-        <v>1703.974453599594</v>
+        <v>1538.729144951478</v>
       </c>
       <c r="X43" t="n">
-        <v>1458.582698933006</v>
+        <v>1293.337390284891</v>
       </c>
       <c r="Y43" t="n">
-        <v>1231.163028247114</v>
+        <v>1065.917719598999</v>
       </c>
     </row>
     <row r="44">
@@ -7627,7 +7627,7 @@
         <v>2526.788885856045</v>
       </c>
       <c r="C44" t="n">
-        <v>2088.646413039468</v>
+        <v>2088.646413039469</v>
       </c>
       <c r="D44" t="n">
         <v>1652.736628213913</v>
@@ -7636,10 +7636,10 @@
         <v>1218.961883372208</v>
       </c>
       <c r="F44" t="n">
-        <v>791.0944537814157</v>
+        <v>791.0944537814161</v>
       </c>
       <c r="G44" t="n">
-        <v>389.8367995776304</v>
+        <v>389.8367995776305</v>
       </c>
       <c r="H44" t="n">
         <v>102.1422344933241</v>
@@ -7651,31 +7651,31 @@
         <v>553.9456687731839</v>
       </c>
       <c r="K44" t="n">
-        <v>1405.772184659975</v>
+        <v>1405.772184659974</v>
       </c>
       <c r="L44" t="n">
         <v>2502.512952049707</v>
       </c>
       <c r="M44" t="n">
-        <v>2526.637020757626</v>
+        <v>3472.263292332364</v>
       </c>
       <c r="N44" t="n">
-        <v>3232.250897834258</v>
+        <v>3496.777713692915</v>
       </c>
       <c r="O44" t="n">
-        <v>4235.578837348185</v>
+        <v>3519.925986636535</v>
       </c>
       <c r="P44" t="n">
-        <v>5083.645227584739</v>
+        <v>4367.992376873089</v>
       </c>
       <c r="Q44" t="n">
-        <v>5098.481547872238</v>
+        <v>4929.327483119183</v>
       </c>
       <c r="R44" t="n">
-        <v>5107.111724666205</v>
+        <v>5107.111724666207</v>
       </c>
       <c r="S44" t="n">
-        <v>5026.654138178648</v>
+        <v>5026.654138178649</v>
       </c>
       <c r="T44" t="n">
         <v>4807.200536626277</v>
@@ -7706,49 +7706,49 @@
         <v>607.5146224619331</v>
       </c>
       <c r="C45" t="n">
-        <v>501.0581612985753</v>
+        <v>501.0581612985754</v>
       </c>
       <c r="D45" t="n">
         <v>405.9678724451286</v>
       </c>
       <c r="E45" t="n">
-        <v>311.8474577720823</v>
+        <v>311.8474577720824</v>
       </c>
       <c r="F45" t="n">
-        <v>228.4636193882439</v>
+        <v>228.463619388244</v>
       </c>
       <c r="G45" t="n">
-        <v>143.153531054087</v>
+        <v>143.1535310540871</v>
       </c>
       <c r="H45" t="n">
         <v>102.1422344933241</v>
       </c>
       <c r="I45" t="n">
-        <v>104.6731320533115</v>
+        <v>130.7368052137692</v>
       </c>
       <c r="J45" t="n">
-        <v>111.6181084023166</v>
+        <v>462.2401065289864</v>
       </c>
       <c r="K45" t="n">
-        <v>123.4881791623238</v>
+        <v>474.1101772889937</v>
       </c>
       <c r="L45" t="n">
-        <v>1093.992002967972</v>
+        <v>490.0709522835386</v>
       </c>
       <c r="M45" t="n">
-        <v>1112.617474565485</v>
+        <v>508.6964238810511</v>
       </c>
       <c r="N45" t="n">
-        <v>1131.735906974363</v>
+        <v>527.8148562899294</v>
       </c>
       <c r="O45" t="n">
-        <v>1149.22553753954</v>
+        <v>545.3044868551061</v>
       </c>
       <c r="P45" t="n">
-        <v>1163.262507981162</v>
+        <v>1091.023220340725</v>
       </c>
       <c r="Q45" t="n">
-        <v>1713.384789617808</v>
+        <v>1641.145501977371</v>
       </c>
       <c r="R45" t="n">
         <v>1762.882278270333</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1178.687535441155</v>
+        <v>1178.687535441156</v>
       </c>
       <c r="C46" t="n">
-        <v>1006.12582392438</v>
+        <v>1006.125823924381</v>
       </c>
       <c r="D46" t="n">
-        <v>840.2478311259031</v>
+        <v>840.2478311259033</v>
       </c>
       <c r="E46" t="n">
-        <v>670.4898273766404</v>
+        <v>670.4898273766405</v>
       </c>
       <c r="F46" t="n">
-        <v>493.7827733383966</v>
+        <v>493.7827733383967</v>
       </c>
       <c r="G46" t="n">
-        <v>328.2543770182383</v>
+        <v>328.2543770182384</v>
       </c>
       <c r="H46" t="n">
-        <v>188.9112511052099</v>
+        <v>188.91125110521</v>
       </c>
       <c r="I46" t="n">
         <v>102.1422344933241</v>
@@ -7830,25 +7830,25 @@
         <v>2779.896976828331</v>
       </c>
       <c r="R46" t="n">
-        <v>2761.306408467823</v>
+        <v>2779.896976828331</v>
       </c>
       <c r="S46" t="n">
-        <v>2603.160843218045</v>
+        <v>2621.751411578553</v>
       </c>
       <c r="T46" t="n">
-        <v>2357.550060136378</v>
+        <v>2453.309392372139</v>
       </c>
       <c r="U46" t="n">
-        <v>2357.550060136378</v>
+        <v>2174.879821370008</v>
       </c>
       <c r="V46" t="n">
-        <v>2070.594552006809</v>
+        <v>1887.924313240439</v>
       </c>
       <c r="W46" t="n">
-        <v>1798.568147593101</v>
+        <v>1615.89790882673</v>
       </c>
       <c r="X46" t="n">
-        <v>1597.925824846034</v>
+        <v>1370.506154160143</v>
       </c>
       <c r="Y46" t="n">
         <v>1370.506154160143</v>
@@ -7978,7 +7978,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -7987,7 +7987,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -7996,13 +7996,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,31 +8054,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.796249040161</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,28 +8136,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512944</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.0063230223086</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8215,7 +8215,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -8224,7 +8224,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -8233,13 +8233,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8291,34 +8291,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -8385,10 +8385,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -8458,22 +8458,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8528,25 +8528,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -8616,19 +8616,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8695,22 +8695,22 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>370.0950243402881</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N11" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>872.3620228455002</v>
       </c>
       <c r="P11" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
         <v>170.8626916697543</v>
@@ -8768,10 +8768,10 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -8786,13 +8786,13 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
-        <v>13.83345271419103</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -8926,22 +8926,22 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N14" t="n">
-        <v>1051.016738643728</v>
+        <v>226.0940644617203</v>
       </c>
       <c r="O14" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
         <v>836.6766412458549</v>
@@ -9011,7 +9011,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9023,10 +9023,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="Q15" t="n">
-        <v>119.0683362272412</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R15" t="n">
         <v>118.3563415094341</v>
@@ -9166,16 +9166,16 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>725.0596242473912</v>
+        <v>1051.016738643727</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9245,7 +9245,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9263,7 +9263,7 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>395.6436177835303</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R18" t="n">
         <v>118.3563415094341</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>807.8756534975848</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>501.247971023814</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9476,10 +9476,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>181.5690634200089</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -9494,16 +9494,16 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>1024.042030119497</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>387.0478957818011</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9713,13 +9713,13 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>177.2793615553858</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>687.6096162327044</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -9731,10 +9731,10 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>63.21272191057466</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>828.0031984638366</v>
       </c>
       <c r="Q24" t="n">
         <v>546.2009481132077</v>
@@ -9880,16 +9880,16 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1051.016738643726</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
         <v>0</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>990.0804712831379</v>
+        <v>903.995206455706</v>
       </c>
       <c r="P26" t="n">
         <v>836.6766412458549</v>
@@ -9956,7 +9956,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>655.4086274124612</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9971,13 +9971,13 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="Q27" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,22 +10111,22 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>842.7780726850283</v>
+        <v>102.6328253453451</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N29" t="n">
-        <v>1051.016738643727</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
         <v>836.6766412458549</v>
@@ -10135,7 +10135,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10193,7 +10193,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>537.0522859030273</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -10208,7 +10208,7 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10348,22 +10348,22 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="O32" t="n">
-        <v>226.0940644617212</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
         <v>836.6766412458549</v>
@@ -10430,7 +10430,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
-        <v>537.0522859030273</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10591,13 +10591,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>0</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>1051.016738643727</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10661,13 +10661,13 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>687.6096162327044</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -10682,13 +10682,13 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>321.9626456511406</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,19 +10822,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
-        <v>1085.919157831171</v>
+        <v>1051.016738643728</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>404.7487802599471</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -10898,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10913,7 +10913,7 @@
         <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>1227.93651811199</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -10922,10 +10922,10 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -11059,28 +11059,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>1051.016738643729</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P41" t="n">
-        <v>330.38527935406</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
         <v>170.8626916697543</v>
@@ -11135,16 +11135,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="L42" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -11156,13 +11156,13 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>45.38736409485136</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -11305,22 +11305,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>955.1780520956954</v>
       </c>
       <c r="N44" t="n">
-        <v>687.9792481980621</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11372,16 +11372,16 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -11393,13 +11393,13 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>537.0522859030276</v>
       </c>
       <c r="Q45" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R45" t="n">
-        <v>45.38736409485136</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -23415,7 +23415,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>130.0467803606381</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>18.40466267690319</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>133.4821265037622</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23652,25 +23652,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>130.046780360638</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>17.77830536804473</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23901,16 +23901,16 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>163.8731123569568</v>
       </c>
       <c r="H19" t="n">
-        <v>59.10590294880707</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>85.90132644576697</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>156.0741005354787</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -24126,13 +24126,13 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>69.82667357617581</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>85.90132644576697</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24183,13 +24183,13 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>32.23640984596085</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24363,16 +24363,16 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>111.6421176837347</v>
       </c>
       <c r="E25" t="n">
-        <v>76.79253764158518</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -24411,13 +24411,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>243.1546752508501</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24600,7 +24600,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S28" t="n">
-        <v>130.0467803606377</v>
+        <v>25.89727492342297</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>275.645275292109</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>85.90132644576697</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,22 +24885,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>18.40466267690319</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>156.56410959728</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>51.76811141280845</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>144.9784406182521</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25086,13 +25086,13 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>163.5928555616341</v>
       </c>
       <c r="G34" t="n">
-        <v>163.3831032951552</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>137.9496946538981</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S34" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25326,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>85.90132644576698</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25374,7 +25374,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>156.0741005354787</v>
+        <v>215.6412237697652</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25554,7 +25554,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -25563,13 +25563,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>163.8731123569568</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>85.90132644576697</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>18.40466267690319</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>51.76811141280831</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>137.3233373450395</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25791,10 +25791,10 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>137.3233373450397</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>137.9496946538981</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S43" t="n">
-        <v>156.56410959728</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>25.43340864125693</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26070,16 +26070,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>18.4046626769032</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>76.39707623649937</v>
       </c>
       <c r="U46" t="n">
-        <v>275.645275292109</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26088,10 +26088,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>44.30193760032617</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>552557.3979002461</v>
+        <v>552557.3979002462</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>552557.3979002461</v>
+        <v>552557.3979002462</v>
       </c>
     </row>
     <row r="7">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>552557.3979002462</v>
+        <v>552557.3979002461</v>
       </c>
     </row>
     <row r="11">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986277</v>
       </c>
       <c r="C2" t="n">
-        <v>495936.2708986278</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="D2" t="n">
-        <v>495936.2708986279</v>
+        <v>495936.2708986276</v>
       </c>
       <c r="E2" t="n">
-        <v>488833.4427724156</v>
+        <v>488833.4427724155</v>
       </c>
       <c r="F2" t="n">
-        <v>488833.4427724156</v>
+        <v>488833.4427724155</v>
       </c>
       <c r="G2" t="n">
         <v>488833.4427724155</v>
       </c>
       <c r="H2" t="n">
-        <v>488833.4427724156</v>
+        <v>488833.4427724155</v>
       </c>
       <c r="I2" t="n">
-        <v>488833.4427724156</v>
+        <v>488833.4427724154</v>
       </c>
       <c r="J2" t="n">
         <v>488833.4427724155</v>
@@ -26349,13 +26349,13 @@
         <v>488833.4427724156</v>
       </c>
       <c r="N2" t="n">
+        <v>488833.4427724156</v>
+      </c>
+      <c r="O2" t="n">
+        <v>488833.4427724157</v>
+      </c>
+      <c r="P2" t="n">
         <v>488833.4427724155</v>
-      </c>
-      <c r="O2" t="n">
-        <v>488833.4427724155</v>
-      </c>
-      <c r="P2" t="n">
-        <v>488833.4427724156</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>282266.170284878</v>
+        <v>282266.1702848778</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449901</v>
+        <v>111014.4653449902</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,7 +26417,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>224357.4126279202</v>
+        <v>224357.4126279203</v>
       </c>
       <c r="C4" t="n">
         <v>224357.4126279203</v>
@@ -26459,7 +26459,7 @@
         <v>117378.5063257626</v>
       </c>
       <c r="P4" t="n">
-        <v>117378.5063257626</v>
+        <v>117378.5063257625</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>59424.78813722234</v>
       </c>
       <c r="E5" t="n">
-        <v>78380.64252189655</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="F5" t="n">
-        <v>78380.64252189655</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="G5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="H5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="I5" t="n">
-        <v>78380.64252189653</v>
+        <v>78380.64252189652</v>
       </c>
       <c r="J5" t="n">
         <v>78380.64252189652</v>
@@ -26502,16 +26502,16 @@
         <v>78380.64252189653</v>
       </c>
       <c r="M5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="N5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189653</v>
       </c>
       <c r="O5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189655</v>
       </c>
       <c r="P5" t="n">
-        <v>78380.64252189652</v>
+        <v>78380.64252189655</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>69962.76947377529</v>
+        <v>69962.76947377512</v>
       </c>
       <c r="C6" t="n">
-        <v>212154.0701334852</v>
+        <v>212154.070133485</v>
       </c>
       <c r="D6" t="n">
-        <v>212154.0701334852</v>
+        <v>212154.070133485</v>
       </c>
       <c r="E6" t="n">
-        <v>10808.12363987847</v>
+        <v>10788.92680710504</v>
       </c>
       <c r="F6" t="n">
-        <v>293074.2939247565</v>
+        <v>293055.0970919827</v>
       </c>
       <c r="G6" t="n">
-        <v>293074.2939247564</v>
+        <v>293055.0970919828</v>
       </c>
       <c r="H6" t="n">
-        <v>293074.2939247565</v>
+        <v>293055.0970919828</v>
       </c>
       <c r="I6" t="n">
-        <v>293074.2939247565</v>
+        <v>293055.0970919827</v>
       </c>
       <c r="J6" t="n">
-        <v>182059.8285797663</v>
+        <v>182040.6317469927</v>
       </c>
       <c r="K6" t="n">
-        <v>293074.2939247563</v>
+        <v>293055.0970919828</v>
       </c>
       <c r="L6" t="n">
-        <v>293074.2939247564</v>
+        <v>293055.0970919828</v>
       </c>
       <c r="M6" t="n">
-        <v>80632.35124376731</v>
+        <v>80613.15441099371</v>
       </c>
       <c r="N6" t="n">
-        <v>293074.2939247564</v>
+        <v>293055.0970919829</v>
       </c>
       <c r="O6" t="n">
-        <v>293074.2939247563</v>
+        <v>293055.097091983</v>
       </c>
       <c r="P6" t="n">
-        <v>293074.2939247565</v>
+        <v>293055.0970919828</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="F3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="G3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="H3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="I3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="J3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="K3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="L3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="M3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="N3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="O3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="P3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
     </row>
     <row r="4">
@@ -26798,19 +26798,19 @@
         <v>424.2958575201043</v>
       </c>
       <c r="E4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="F4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="G4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="H4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="I4" t="n">
-        <v>1276.777931166552</v>
+        <v>1276.777931166551</v>
       </c>
       <c r="J4" t="n">
         <v>1276.777931166551</v>
@@ -26822,16 +26822,16 @@
         <v>1276.777931166552</v>
       </c>
       <c r="M4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="N4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="O4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
       <c r="P4" t="n">
-        <v>1276.777931166551</v>
+        <v>1276.777931166552</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>34.52038105367918</v>
+        <v>34.52038105367911</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>852.4820736464474</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201042</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464471</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>852.4820736464474</v>
+        <v>852.4820736464469</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>45.91850523978246</v>
       </c>
       <c r="C2" t="n">
         <v>400</v>
@@ -27387,7 +27387,7 @@
         <v>7.254829457195569</v>
       </c>
       <c r="E2" t="n">
-        <v>5.14113987318342</v>
+        <v>400</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,10 +27396,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>145.2953947126381</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,7 +27432,7 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -27444,7 +27444,7 @@
         <v>400</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>400</v>
@@ -27536,22 +27536,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>9.956153288156628</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27593,19 +27593,19 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>248.0667947770247</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>9.465190568306582</v>
       </c>
       <c r="D5" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27633,10 +27633,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,25 +27666,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>74.87600896501561</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
+        <v>0</v>
+      </c>
+      <c r="X5" t="n">
+        <v>179.8232350153227</v>
+      </c>
+      <c r="Y5" t="n">
         <v>400</v>
-      </c>
-      <c r="X5" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y5" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27776,25 +27776,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>134.5425849690976</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,28 +27821,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>175.4724511961017</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27858,13 +27858,13 @@
         <v>400</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>7.254829457195569</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>5.14113987318342</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>316.9527908541094</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27906,22 +27906,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>188.2245344746683</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>141.5543693764521</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>72.78996144619879</v>
       </c>
     </row>
     <row r="11">
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -30459,25 +30459,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30510,25 +30510,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
     </row>
     <row r="42">
@@ -30696,25 +30696,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -30750,22 +30750,22 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-1.034172747438333e-12</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-6.505731331876805e-14</v>
       </c>
     </row>
     <row r="45">
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H11" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I11" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J11" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K11" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L11" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M11" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N11" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P11" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R11" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S11" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T11" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U11" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H12" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I12" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K12" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L12" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O12" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P12" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R12" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S12" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T12" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U12" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H13" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I13" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J13" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K13" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L13" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M13" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N13" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O13" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P13" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q13" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R13" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S13" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T13" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U13" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H14" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I14" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J14" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K14" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N14" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O14" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P14" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q14" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R14" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S14" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T14" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U14" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H15" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I15" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J15" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K15" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L15" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q15" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R15" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S15" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T15" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U15" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H16" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I16" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J16" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K16" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L16" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M16" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N16" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O16" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P16" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q16" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R16" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S16" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T16" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U16" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H17" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I17" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J17" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L17" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M17" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N17" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O17" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P17" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q17" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R17" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S17" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T17" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U17" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H18" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I18" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J18" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K18" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O18" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P18" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q18" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R18" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S18" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T18" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U18" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H19" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I19" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J19" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K19" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L19" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M19" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N19" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O19" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P19" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q19" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R19" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S19" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T19" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U19" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H20" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I20" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J20" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L20" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N20" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O20" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P20" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q20" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R20" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S20" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T20" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U20" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H21" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I21" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K21" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O21" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P21" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R21" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S21" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T21" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U21" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H22" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I22" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J22" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K22" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L22" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M22" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N22" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O22" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P22" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q22" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R22" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S22" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T22" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U22" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H23" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I23" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J23" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K23" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L23" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M23" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N23" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O23" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P23" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q23" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R23" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S23" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T23" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U23" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H24" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I24" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J24" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K24" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q24" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R24" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S24" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T24" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U24" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H25" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I25" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J25" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K25" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L25" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M25" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N25" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O25" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P25" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q25" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R25" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S25" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T25" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U25" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H26" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I26" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J26" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K26" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L26" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O26" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P26" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q26" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R26" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S26" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T26" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U26" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H27" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I27" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J27" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K27" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q27" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S27" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T27" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U27" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H28" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I28" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J28" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K28" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L28" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M28" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N28" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O28" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P28" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q28" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R28" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S28" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T28" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U28" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H29" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I29" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J29" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K29" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N29" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O29" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P29" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q29" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R29" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S29" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T29" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U29" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H30" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I30" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J30" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K30" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L30" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M30" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q30" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R30" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S30" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T30" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U30" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H31" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I31" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J31" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K31" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L31" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M31" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N31" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O31" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P31" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q31" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R31" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S31" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T31" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U31" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H32" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I32" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K32" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L32" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M32" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O32" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P32" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q32" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R32" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S32" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T32" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U32" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H33" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I33" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J33" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K33" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L33" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M33" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O33" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P33" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q33" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R33" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S33" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T33" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U33" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H34" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I34" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J34" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K34" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L34" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M34" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N34" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O34" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P34" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q34" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R34" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S34" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T34" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U34" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H35" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I35" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J35" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K35" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N35" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O35" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P35" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q35" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R35" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S35" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T35" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U35" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H36" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K36" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L36" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O36" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P36" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S36" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T36" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U36" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H37" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I37" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J37" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K37" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L37" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M37" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N37" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O37" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P37" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q37" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R37" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S37" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T37" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U37" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H38" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I38" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K38" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L38" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N38" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O38" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P38" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q38" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R38" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S38" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T38" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U38" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H39" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J39" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N39" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O39" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P39" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S39" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T39" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U39" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H40" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I40" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J40" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K40" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L40" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M40" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N40" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O40" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P40" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q40" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R40" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S40" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T40" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U40" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H41" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I41" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L41" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M41" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N41" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O41" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P41" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R41" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S41" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T41" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U41" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H42" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L42" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O42" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P42" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q42" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S42" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T42" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U42" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H43" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I43" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J43" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K43" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L43" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M43" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N43" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O43" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P43" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R43" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S43" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T43" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U43" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.1387754012208207</v>
+        <v>0.1387754012208204</v>
       </c>
       <c r="H44" t="n">
-        <v>1.421233577752731</v>
+        <v>1.421233577752728</v>
       </c>
       <c r="I44" t="n">
-        <v>5.350138655565696</v>
+        <v>5.350138655565685</v>
       </c>
       <c r="J44" t="n">
-        <v>11.77838870936564</v>
+        <v>11.77838870936562</v>
       </c>
       <c r="K44" t="n">
-        <v>17.65275144304299</v>
+        <v>17.65275144304295</v>
       </c>
       <c r="L44" t="n">
-        <v>21.89979912815468</v>
+        <v>21.89979912815464</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961545</v>
+        <v>24.3677461696154</v>
       </c>
       <c r="N44" t="n">
-        <v>24.76204177833411</v>
+        <v>24.76204177833406</v>
       </c>
       <c r="O44" t="n">
-        <v>23.38209388244458</v>
+        <v>23.38209388244453</v>
       </c>
       <c r="P44" t="n">
-        <v>19.95607616480556</v>
+        <v>19.95607616480552</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858491</v>
+        <v>14.98618210858488</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937388</v>
+        <v>8.717350296937369</v>
       </c>
       <c r="S44" t="n">
-        <v>3.162344455319456</v>
+        <v>3.162344455319449</v>
       </c>
       <c r="T44" t="n">
-        <v>0.607489318844143</v>
+        <v>0.6074893188441418</v>
       </c>
       <c r="U44" t="n">
-        <v>0.01110203209766566</v>
+        <v>0.01110203209766563</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.07425138566263069</v>
+        <v>0.07425138566263054</v>
       </c>
       <c r="H45" t="n">
-        <v>0.7171120667943545</v>
+        <v>0.7171120667943529</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805487</v>
+        <v>2.556462181805482</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257579</v>
+        <v>7.015127625257565</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465383</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L45" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
-        <v>18.81360767425515</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775587</v>
+        <v>19.31154788775583</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017863</v>
+        <v>17.66629350017859</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184042</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q45" t="n">
-        <v>9.478124247040368</v>
+        <v>9.478124247040348</v>
       </c>
       <c r="R45" t="n">
-        <v>4.610099190527195</v>
+        <v>4.610099190527186</v>
       </c>
       <c r="S45" t="n">
-        <v>1.379186922286144</v>
+        <v>1.379186922286141</v>
       </c>
       <c r="T45" t="n">
-        <v>0.2992851904559543</v>
+        <v>0.2992851904559537</v>
       </c>
       <c r="U45" t="n">
-        <v>0.004884959583067811</v>
+        <v>0.004884959583067801</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0622498674738477</v>
+        <v>0.06224986747384757</v>
       </c>
       <c r="H46" t="n">
-        <v>0.553457912631119</v>
+        <v>0.5534579126311179</v>
       </c>
       <c r="I46" t="n">
-        <v>1.872023287304439</v>
+        <v>1.872023287304435</v>
       </c>
       <c r="J46" t="n">
-        <v>4.401065630401032</v>
+        <v>4.401065630401023</v>
       </c>
       <c r="K46" t="n">
-        <v>7.232302784688849</v>
+        <v>7.232302784688834</v>
       </c>
       <c r="L46" t="n">
-        <v>9.254857569702777</v>
+        <v>9.254857569702757</v>
       </c>
       <c r="M46" t="n">
-        <v>9.757949680468688</v>
+        <v>9.757949680468668</v>
       </c>
       <c r="N46" t="n">
-        <v>9.525927447157082</v>
+        <v>9.525927447157063</v>
       </c>
       <c r="O46" t="n">
-        <v>8.798735813485312</v>
+        <v>8.798735813485294</v>
       </c>
       <c r="P46" t="n">
-        <v>7.528838517018813</v>
+        <v>7.528838517018797</v>
       </c>
       <c r="Q46" t="n">
-        <v>5.212577539105556</v>
+        <v>5.212577539105546</v>
       </c>
       <c r="R46" t="n">
-        <v>2.798980404778642</v>
+        <v>2.798980404778636</v>
       </c>
       <c r="S46" t="n">
-        <v>1.084845417703327</v>
+        <v>1.084845417703325</v>
       </c>
       <c r="T46" t="n">
-        <v>0.2659767064791674</v>
+        <v>0.2659767064791668</v>
       </c>
       <c r="U46" t="n">
-        <v>0.003395447316755333</v>
+        <v>0.003395447316755326</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,7 +34698,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -34707,7 +34707,7 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -34716,13 +34716,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P2" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q2" t="n">
         <v>424.2958575201044</v>
       </c>
-      <c r="Q2" t="n">
-        <v>407.1525905495951</v>
-      </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,31 +34774,31 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201043</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L3" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="O3" t="n">
-        <v>288.796249040161</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>130.0063230223086</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,7 +34935,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>424.2958575201043</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -34944,7 +34944,7 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -34953,13 +34953,13 @@
         <v>424.2958575201043</v>
       </c>
       <c r="P5" t="n">
-        <v>407.1525905495951</v>
+        <v>236.2898988798406</v>
       </c>
       <c r="Q5" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35011,34 +35011,34 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L6" t="n">
-        <v>407.152590549595</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>424.2958575201044</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="Q6" t="n">
         <v>424.2958575201044</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,7 +35093,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>34.86753268700501</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
         <v>277.5337924960966</v>
@@ -35105,10 +35105,10 @@
         <v>0</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P7" t="n">
         <v>351.0170646165068</v>
@@ -35178,22 +35178,22 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
         <v>424.2958575201043</v>
       </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="n">
-        <v>0</v>
-      </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
+        <v>236.2898988798406</v>
+      </c>
+      <c r="Q8" t="n">
         <v>424.2958575201044</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q8" t="n">
-        <v>236.2898988798406</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35248,25 +35248,25 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>424.2958575201044</v>
       </c>
       <c r="L9" t="n">
-        <v>424.2958575201043</v>
+        <v>358.9284720888814</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>288.796249040161</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -35336,19 +35336,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>424.2958575201044</v>
+        <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>0</v>
+        <v>371.7091627680287</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J11" t="n">
-        <v>451.4295881567575</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K11" t="n">
-        <v>860.4308241280713</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L11" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M11" t="n">
-        <v>394.4627705099037</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N11" t="n">
-        <v>1161.864045249493</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O11" t="n">
-        <v>23.38209388244468</v>
+        <v>895.7441167279449</v>
       </c>
       <c r="P11" t="n">
-        <v>856.6327174106609</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q11" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R11" t="n">
         <v>179.5800419666912</v>
@@ -35488,31 +35488,31 @@
         <v>28.8834047681263</v>
       </c>
       <c r="J12" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K12" t="n">
-        <v>699.5995866973583</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L12" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M12" t="n">
-        <v>18.81360767425519</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N12" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O12" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P12" t="n">
-        <v>842.1819564856769</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q12" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R12" t="n">
-        <v>18.44355190471833</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35643,25 +35643,25 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J14" t="n">
-        <v>451.4295881567575</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K14" t="n">
-        <v>860.4308241280713</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L14" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M14" t="n">
-        <v>24.36774616961543</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N14" t="n">
-        <v>1075.778780422062</v>
+        <v>250.8561062400545</v>
       </c>
       <c r="O14" t="n">
-        <v>1013.462565165582</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P14" t="n">
         <v>856.6327174106605</v>
@@ -35725,28 +35725,28 @@
         <v>28.8834047681263</v>
       </c>
       <c r="J15" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K15" t="n">
         <v>11.98997046465382</v>
       </c>
       <c r="L15" t="n">
-        <v>980.3068927329784</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M15" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N15" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O15" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P15" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q15" t="n">
-        <v>128.5464604742815</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R15" t="n">
         <v>122.9664406999614</v>
@@ -35880,22 +35880,22 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J17" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K17" t="n">
-        <v>17.65275144304303</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L17" t="n">
         <v>21.89979912815465</v>
       </c>
       <c r="M17" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N17" t="n">
-        <v>749.8216660257253</v>
+        <v>1075.778780422061</v>
       </c>
       <c r="O17" t="n">
         <v>1013.462565165582</v>
@@ -35959,22 +35959,22 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>28.88340476812628</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J18" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K18" t="n">
-        <v>699.5995866973583</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L18" t="n">
-        <v>16.12199494398487</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M18" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N18" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O18" t="n">
         <v>17.66629350017865</v>
@@ -35983,7 +35983,7 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q18" t="n">
-        <v>405.1217420305707</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R18" t="n">
         <v>122.9664406999614</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K19" t="n">
         <v>284.7660952807854</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J20" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K20" t="n">
-        <v>17.65275144304303</v>
+        <v>17.65275144304296</v>
       </c>
       <c r="L20" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M20" t="n">
-        <v>24.36774616961543</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N20" t="n">
-        <v>832.637695275919</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O20" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P20" t="n">
-        <v>856.6327174106605</v>
+        <v>19.95607616480538</v>
       </c>
       <c r="Q20" t="n">
-        <v>567.0051578243374</v>
+        <v>516.2341531323991</v>
       </c>
       <c r="R20" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J21" t="n">
-        <v>7.015127625257577</v>
+        <v>188.5841910452665</v>
       </c>
       <c r="K21" t="n">
         <v>11.98997046465382</v>
       </c>
       <c r="L21" t="n">
-        <v>16.12199494398479</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M21" t="n">
         <v>18.81360767425514</v>
       </c>
       <c r="N21" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775581</v>
       </c>
       <c r="O21" t="n">
-        <v>1041.708323619675</v>
+        <v>17.6662935001786</v>
       </c>
       <c r="P21" t="n">
-        <v>401.2266538036415</v>
+        <v>842.181956485677</v>
       </c>
       <c r="Q21" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R21" t="n">
-        <v>122.9664406999614</v>
+        <v>4.61009919052708</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,7 +36278,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K22" t="n">
         <v>284.7660952807854</v>
@@ -36354,13 +36354,13 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J23" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K23" t="n">
-        <v>860.4308241280714</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L23" t="n">
         <v>21.89979912815465</v>
@@ -36369,7 +36369,7 @@
         <v>24.36774616961543</v>
       </c>
       <c r="N23" t="n">
-        <v>1075.778780422062</v>
+        <v>1075.778780422061</v>
       </c>
       <c r="O23" t="n">
         <v>1013.462565165582</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>28.88340476812628</v>
+        <v>2.556462181805486</v>
       </c>
       <c r="J24" t="n">
-        <v>184.2944891806434</v>
+        <v>7.015127625257563</v>
       </c>
       <c r="K24" t="n">
-        <v>699.5995866973583</v>
+        <v>11.98997046465381</v>
       </c>
       <c r="L24" t="n">
-        <v>16.12199494398476</v>
+        <v>16.12199494398477</v>
       </c>
       <c r="M24" t="n">
-        <v>18.81360767425508</v>
+        <v>18.81360767425511</v>
       </c>
       <c r="N24" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775584</v>
       </c>
       <c r="O24" t="n">
-        <v>17.66629350017865</v>
+        <v>80.87901541075325</v>
       </c>
       <c r="P24" t="n">
-        <v>14.17875802184039</v>
+        <v>842.181956485677</v>
       </c>
       <c r="Q24" t="n">
         <v>555.679072360248</v>
@@ -36515,7 +36515,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>91.8552930694817</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K25" t="n">
         <v>284.7660952807854</v>
@@ -36591,25 +36591,25 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J26" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K26" t="n">
-        <v>860.4308241280714</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L26" t="n">
-        <v>1072.916537771881</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M26" t="n">
-        <v>24.36774616961566</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N26" t="n">
-        <v>24.76204177833415</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O26" t="n">
-        <v>1013.462565165582</v>
+        <v>927.3773003381507</v>
       </c>
       <c r="P26" t="n">
         <v>856.6327174106605</v>
@@ -36673,31 +36673,31 @@
         <v>28.8834047681263</v>
       </c>
       <c r="J27" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K27" t="n">
-        <v>667.398597877115</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L27" t="n">
-        <v>16.12199494398487</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M27" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N27" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O27" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P27" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q27" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R27" t="n">
-        <v>4.610099190527308</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,7 +36752,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>91.85529306948172</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K28" t="n">
         <v>284.7660952807854</v>
@@ -36828,25 +36828,25 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J29" t="n">
-        <v>451.4295881567574</v>
+        <v>11.77838870936561</v>
       </c>
       <c r="K29" t="n">
-        <v>860.4308241280714</v>
+        <v>120.2855767883881</v>
       </c>
       <c r="L29" t="n">
-        <v>21.89979912815465</v>
+        <v>1107.818956959326</v>
       </c>
       <c r="M29" t="n">
-        <v>24.36774616961543</v>
+        <v>1193.10293325098</v>
       </c>
       <c r="N29" t="n">
-        <v>1075.778780422062</v>
+        <v>1161.864045249493</v>
       </c>
       <c r="O29" t="n">
-        <v>1013.462565165582</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P29" t="n">
         <v>856.6327174106605</v>
@@ -36855,7 +36855,7 @@
         <v>567.0051578243374</v>
       </c>
       <c r="R29" t="n">
-        <v>179.5800419666912</v>
+        <v>8.717350296937184</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36910,10 +36910,10 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J30" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K30" t="n">
-        <v>549.0422563676811</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L30" t="n">
         <v>16.12199494398476</v>
@@ -36922,13 +36922,13 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N30" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O30" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P30" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q30" t="n">
         <v>555.679072360248</v>
@@ -37065,25 +37065,25 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J32" t="n">
-        <v>11.77838870936564</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K32" t="n">
-        <v>860.4308241280713</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L32" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M32" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N32" t="n">
-        <v>24.76204177833415</v>
+        <v>1075.778780422062</v>
       </c>
       <c r="O32" t="n">
-        <v>249.4761583441659</v>
+        <v>1013.462565165582</v>
       </c>
       <c r="P32" t="n">
         <v>856.6327174106605</v>
@@ -37147,10 +37147,10 @@
         <v>28.88340476812628</v>
       </c>
       <c r="J33" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K33" t="n">
-        <v>549.0422563676811</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L33" t="n">
         <v>16.12199494398476</v>
@@ -37159,7 +37159,7 @@
         <v>18.81360767425508</v>
       </c>
       <c r="N33" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O33" t="n">
         <v>17.66629350017865</v>
@@ -37302,22 +37302,22 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J35" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K35" t="n">
-        <v>860.4308241280714</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L35" t="n">
-        <v>21.89979912815465</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M35" t="n">
-        <v>24.36774616961543</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N35" t="n">
-        <v>1075.778780422061</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O35" t="n">
         <v>1013.462565165582</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J36" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K36" t="n">
-        <v>699.5995866973583</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L36" t="n">
         <v>16.12199494398476</v>
       </c>
       <c r="M36" t="n">
-        <v>18.81360767425519</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N36" t="n">
-        <v>19.31154788775586</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O36" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P36" t="n">
-        <v>336.141403672981</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q36" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R36" t="n">
-        <v>4.610099190527308</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>91.85529306948172</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K37" t="n">
         <v>284.7660952807854</v>
@@ -37539,22 +37539,22 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J38" t="n">
-        <v>11.77838870936564</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K38" t="n">
         <v>860.4308241280712</v>
       </c>
       <c r="L38" t="n">
-        <v>1107.818956959326</v>
+        <v>1072.916537771883</v>
       </c>
       <c r="M38" t="n">
-        <v>24.36774616961566</v>
+        <v>24.3677461696152</v>
       </c>
       <c r="N38" t="n">
-        <v>429.5108220382813</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O38" t="n">
         <v>1013.462565165582</v>
@@ -37618,22 +37618,22 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>2.556462181805486</v>
+        <v>28.88340476812628</v>
       </c>
       <c r="J39" t="n">
-        <v>334.8518195103206</v>
+        <v>334.8518195103205</v>
       </c>
       <c r="K39" t="n">
-        <v>11.98997046465382</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L39" t="n">
-        <v>16.12199494398482</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M39" t="n">
-        <v>18.81360767425514</v>
+        <v>18.81360767425508</v>
       </c>
       <c r="N39" t="n">
-        <v>1247.248065999746</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O39" t="n">
         <v>17.66629350017865</v>
@@ -37642,10 +37642,10 @@
         <v>14.17875802184039</v>
       </c>
       <c r="Q39" t="n">
-        <v>9.478124247040341</v>
+        <v>555.679072360248</v>
       </c>
       <c r="R39" t="n">
-        <v>4.610099190527308</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,7 +37700,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>91.85529306948172</v>
+        <v>91.8552930694817</v>
       </c>
       <c r="K40" t="n">
         <v>284.7660952807854</v>
@@ -37776,31 +37776,31 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J41" t="n">
-        <v>11.77838870936564</v>
+        <v>451.4295881567574</v>
       </c>
       <c r="K41" t="n">
-        <v>17.65275144304297</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L41" t="n">
-        <v>1107.818956959326</v>
+        <v>21.89979912815465</v>
       </c>
       <c r="M41" t="n">
-        <v>1193.10293325098</v>
+        <v>24.36774616961543</v>
       </c>
       <c r="N41" t="n">
-        <v>1161.864045249493</v>
+        <v>1075.778780422063</v>
       </c>
       <c r="O41" t="n">
         <v>1013.462565165582</v>
       </c>
       <c r="P41" t="n">
-        <v>350.3413555188654</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q41" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R41" t="n">
         <v>179.5800419666912</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>2.556462181805486</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J42" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103204</v>
       </c>
       <c r="K42" t="n">
-        <v>11.98997046465384</v>
+        <v>549.0422563676814</v>
       </c>
       <c r="L42" t="n">
-        <v>980.3068927329786</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M42" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N42" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775575</v>
       </c>
       <c r="O42" t="n">
         <v>17.66629350017865</v>
       </c>
       <c r="P42" t="n">
-        <v>59.56612211669176</v>
+        <v>14.17875802184039</v>
       </c>
       <c r="Q42" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R42" t="n">
-        <v>4.610099190527308</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,7 +37937,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>91.85529306948172</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K43" t="n">
         <v>284.7660952807854</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>4.937517176434299</v>
+        <v>4.937517176434287</v>
       </c>
       <c r="J44" t="n">
         <v>451.4295881567574</v>
       </c>
       <c r="K44" t="n">
-        <v>860.4308241280714</v>
+        <v>860.4308241280712</v>
       </c>
       <c r="L44" t="n">
         <v>1107.818956959326</v>
       </c>
       <c r="M44" t="n">
-        <v>24.36774616961566</v>
+        <v>979.5457982653106</v>
       </c>
       <c r="N44" t="n">
-        <v>712.7412899763963</v>
+        <v>24.76204177833415</v>
       </c>
       <c r="O44" t="n">
-        <v>1013.462565165582</v>
+        <v>23.38209388244468</v>
       </c>
       <c r="P44" t="n">
-        <v>856.63271741066</v>
+        <v>856.6327174106605</v>
       </c>
       <c r="Q44" t="n">
-        <v>14.98618210858513</v>
+        <v>567.0051578243374</v>
       </c>
       <c r="R44" t="n">
-        <v>8.717350296937184</v>
+        <v>179.5800419666912</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>2.556462181805486</v>
+        <v>28.8834047681263</v>
       </c>
       <c r="J45" t="n">
-        <v>7.015127625257577</v>
+        <v>334.8518195103204</v>
       </c>
       <c r="K45" t="n">
-        <v>11.98997046465384</v>
+        <v>11.98997046465382</v>
       </c>
       <c r="L45" t="n">
-        <v>980.3068927329786</v>
+        <v>16.12199494398476</v>
       </c>
       <c r="M45" t="n">
         <v>18.81360767425508</v>
       </c>
       <c r="N45" t="n">
-        <v>19.31154788775598</v>
+        <v>19.31154788775586</v>
       </c>
       <c r="O45" t="n">
-        <v>17.66629350017865</v>
+        <v>17.66629350017854</v>
       </c>
       <c r="P45" t="n">
-        <v>14.17875802184039</v>
+        <v>551.231043924868</v>
       </c>
       <c r="Q45" t="n">
         <v>555.679072360248</v>
       </c>
       <c r="R45" t="n">
-        <v>49.99746328537867</v>
+        <v>122.9664406999614</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>91.85529306948172</v>
+        <v>91.85529306948169</v>
       </c>
       <c r="K46" t="n">
         <v>284.7660952807854</v>
